--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600140.3967378368</v>
+        <v>597171.6177738126</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692571</v>
+        <v>7757679.400320134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12162664.64504643</v>
+        <v>12163408.26182196</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>149.223478460409</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>20.28414019644639</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>139.1296354848076</v>
       </c>
       <c r="X4" t="n">
-        <v>206.618470142386</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.3588945158828</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,13 +944,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>176.0943066891826</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>155.2429800662627</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.1158914498613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.6813527097526</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>140.1965940131587</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.31354443380407</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.380068175847648</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534541</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>17.25588147840194</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>191.0375394480906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>59.42234841526928</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>26.14194921923999</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2293,10 +2293,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>254.9671879163735</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>61.60385878691227</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>85.13536476890714</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744755</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>131.246137598961</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>88.18935773635853</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>209.5675193320716</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672378</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698771</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>135.8044647019661</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>165.4344850062326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>380.3933256949194</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.670805166879</v>
+        <v>175.5610162827834</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835695</v>
+        <v>162.9758571994739</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.3445091190585</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.259873007873</v>
+        <v>141.1500841237774</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621086</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>64.6055889441013</v>
+        <v>83.60067921052357</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434007</v>
+        <v>177.0675244593051</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477035</v>
+        <v>213.2110305636079</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333621</v>
+        <v>281.9144876492666</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087697</v>
+        <v>247.8666794246741</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215327</v>
+        <v>282.2520344374371</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739789</v>
+        <v>221.4386914898833</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370365</v>
+        <v>214.3136894529409</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641368</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973847</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1760.851696582593</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1391.889179642181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1033.623481035431</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1033.623481035431</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>622.6375762458231</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>204.67376814401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.451536646714</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y2" t="n">
-        <v>2147.451536646714</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>587.5939988682447</v>
       </c>
       <c r="X4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.8329293182748</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858352</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.380556858352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4562,7 +4562,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2464.247364488935</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2090.781606227855</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259435</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278601</v>
+        <v>1816.442957727741</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.012461985812</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2080756496231</v>
+        <v>597.1377188430478</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2080756496231</v>
+        <v>597.1377188430478</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5042,16 +5042,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,28 +5130,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157118</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878049</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="D13" t="n">
-        <v>173.6555237754692</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="E13" t="n">
-        <v>173.6555237754692</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="F13" t="n">
-        <v>173.6555237754692</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573314</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442064</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.55611102446</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.138940987499</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894817</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459516</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.0030950818859</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C16" t="n">
-        <v>558.066912153979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>558.066912153979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.513008862231</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V16" t="n">
-        <v>1611.828520656344</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W16" t="n">
-        <v>1322.411350619384</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X16" t="n">
-        <v>1129.444139055656</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6515599121257</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,13 +5519,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5540,25 +5540,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5592,40 +5592,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>302.4735561031423</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201815</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221641</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.209499278634</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="20">
@@ -5735,43 +5735,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577529</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>533.2127443498359</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5914,7 +5914,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5941,19 +5941,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1195.517895201641</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V22" t="n">
-        <v>940.8334069957543</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W22" t="n">
-        <v>651.4162369587937</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X22" t="n">
-        <v>423.4266860607763</v>
+        <v>935.6537883236058</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>714.8612091800757</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.5901955154778</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C25" t="n">
-        <v>452.5901955154778</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6175,22 +6175,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570252</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X25" t="n">
-        <v>673.382774659008</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154778</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
@@ -6236,16 +6236,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>500.6091747370281</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>331.6729918091212</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.5563523967854</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.5563523967855</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.5563523967855</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>181.5563523967855</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,52 +6382,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.962769867859</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437385</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>903.0502187107979</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>682.2576395672678</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,22 +6464,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>722.4071781934688</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6488,25 +6488,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6564,16 +6564,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1733.941152701665</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1444.838285827308</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1444.838285827308</v>
       </c>
       <c r="W31" t="n">
-        <v>709.686441383852</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858346</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423045</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967906</v>
+        <v>425.1871727453687</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866373</v>
+        <v>1079.910504880668</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139992</v>
+        <v>1530.944718129077</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969821</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196468</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075805</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6801,10 +6801,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6859,19 +6859,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501057</v>
+        <v>1675.577422601875</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1386.474555727518</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208134</v>
+        <v>1131.790067521631</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838529</v>
+        <v>842.3728974846707</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>614.3833465866534</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473709</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672754</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.614279155824</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.920227843172</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152481</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671633</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264242</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865885</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752796</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>142.6450845291499</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>142.6450845291499</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>142.6450845291499</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6634387812777</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.759402180614</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.635877180808</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.219395606884</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.7047511954698</v>
+        <v>866.6744839468081</v>
       </c>
       <c r="C37" t="n">
-        <v>557.7047511954698</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="D37" t="n">
-        <v>407.6990096458572</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E37" t="n">
-        <v>407.6990096458572</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F37" t="n">
-        <v>260.9199600106699</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327809</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985994</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769885</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.909402371531</v>
+        <v>2041.206737061443</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028367</v>
+        <v>1786.522248855556</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.02953985413</v>
+        <v>1497.105078818595</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9239994437935</v>
+        <v>1269.115527920578</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.2423181629865</v>
+        <v>1048.322948777048</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347668</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>584.5489958917233</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.567350143851</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.663313543187</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.539788543381</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2473.567771237115</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>629.505537692065</v>
+        <v>631.2939336595198</v>
       </c>
       <c r="C40" t="n">
-        <v>464.7725618500756</v>
+        <v>466.6718556802531</v>
       </c>
       <c r="D40" t="n">
-        <v>464.7725618500756</v>
+        <v>320.8693212165575</v>
       </c>
       <c r="E40" t="n">
-        <v>464.7725618500756</v>
+        <v>320.8693212165575</v>
       </c>
       <c r="F40" t="n">
-        <v>322.0858214380828</v>
+        <v>178.2934786672874</v>
       </c>
       <c r="G40" t="n">
-        <v>159.0748336985793</v>
+        <v>178.2934786672874</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024335</v>
+        <v>177.0587253013233</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379049</v>
+        <v>440.9157065320485</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859468</v>
+        <v>832.9057788753448</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095314</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151929</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431866</v>
+        <v>2046.538456507028</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532978</v>
+        <v>2341.297145603395</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351321</v>
+        <v>2463.238533416993</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.337320351321</v>
+        <v>2463.238533416993</v>
       </c>
       <c r="S40" t="n">
-        <v>2283.370337176169</v>
+        <v>2284.382448104563</v>
       </c>
       <c r="T40" t="n">
-        <v>2067.894761976468</v>
+        <v>2069.017770767586</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.021755377112</v>
+        <v>1784.255662030953</v>
       </c>
       <c r="V40" t="n">
-        <v>1532.540474257143</v>
+        <v>1533.885278773706</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.3265113061</v>
+        <v>1248.782213685386</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.540167494</v>
+        <v>1025.106767736009</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.9507954363872</v>
+        <v>808.6282935411192</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.599035247486</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1798.694998646823</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319332</v>
+        <v>921.9831621891594</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656826</v>
+        <v>778.3953859427379</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>653.6271532118875</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380723</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>921.9831621891591</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>778.3953859427376</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>653.6271532118873</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>531.0624663109795</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945546</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506187</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296845</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.147144788772</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604301</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504288</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900155</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>29.61882225791999</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>11.64153443578698</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704209</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>105.1996354507095</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704099</v>
+        <v>142.1686942807564</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>49.74439522492548</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>49.74439522492628</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>88.71226382522694</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>89.97235223399043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>149.9909396202259</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.67211594094653</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>87.01161423129989</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23938,13 +23938,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>141.1048718793878</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.24465028923933</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>87.01161423130009</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>83.01406815846397</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>59.61965014541364</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696639</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696628</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>88.30281167720821</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.3595915398107</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>16.14213605696554</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031318</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.3809868464543</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>60.16538149870864</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031541</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315109</v>
+        <v>142.1629987474153</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.271088978013</v>
       </c>
       <c r="H40" t="n">
-        <v>71.68722583279431</v>
+        <v>52.58234668227647</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935071</v>
+        <v>77.53361284525513</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602525</v>
+        <v>62.90978769192967</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1032854.501812958</v>
+        <v>1032793.132631317</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035810.103378973</v>
+        <v>1035908.922432801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855346</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
         <v>377227.6975426339</v>
@@ -26326,7 +26326,7 @@
         <v>377227.6975426342</v>
       </c>
       <c r="G2" t="n">
-        <v>377227.6975426341</v>
+        <v>377227.697542634</v>
       </c>
       <c r="H2" t="n">
         <v>377227.697542634</v>
@@ -26335,25 +26335,25 @@
         <v>377227.697542634</v>
       </c>
       <c r="J2" t="n">
-        <v>377227.6975426341</v>
+        <v>377227.697542634</v>
       </c>
       <c r="K2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="L2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.697542634</v>
       </c>
       <c r="M2" t="n">
-        <v>383204.2531163546</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="N2" t="n">
-        <v>384305.3595821246</v>
+        <v>384335.1985671632</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485549</v>
+        <v>312970.0160233573</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769968</v>
+        <v>3416.771119323129</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668365</v>
+        <v>16659.16697241331</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
+        <v>192206.5963924297</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
-      <c r="D4" t="n">
-        <v>192206.5963924297</v>
-      </c>
       <c r="E4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674903</v>
+        <v>5069.915760662881</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.07015772561</v>
+        <v>6475.275729222437</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975158</v>
+        <v>13327.39591958991</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958989</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26497,19 +26497,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475038.7129848493</v>
+        <v>-475038.712984849</v>
       </c>
       <c r="C6" t="n">
-        <v>114929.1662296954</v>
+        <v>114929.1662296953</v>
       </c>
       <c r="D6" t="n">
-        <v>114929.1662296954</v>
+        <v>114929.1662296953</v>
       </c>
       <c r="E6" t="n">
-        <v>-468152.8427015784</v>
+        <v>-468220.0381918043</v>
       </c>
       <c r="F6" t="n">
-        <v>259224.5712918287</v>
+        <v>259157.3758016028</v>
       </c>
       <c r="G6" t="n">
-        <v>259224.5712918285</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="H6" t="n">
-        <v>259224.5712918285</v>
+        <v>259157.3758016026</v>
       </c>
       <c r="I6" t="n">
-        <v>259224.5712918285</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="J6" t="n">
-        <v>82801.35209923565</v>
+        <v>82734.15660900963</v>
       </c>
       <c r="K6" t="n">
-        <v>259224.5712918286</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="L6" t="n">
-        <v>259224.5712918283</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="M6" t="n">
-        <v>-35827.0441700481</v>
+        <v>-35831.45409180719</v>
       </c>
       <c r="N6" t="n">
-        <v>273318.3959188123</v>
+        <v>273124.2690072444</v>
       </c>
       <c r="O6" t="n">
-        <v>251554.2785351842</v>
+        <v>256968.5332870001</v>
       </c>
       <c r="P6" t="n">
-        <v>274382.2169318678</v>
+        <v>273627.7002594134</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26753,19 +26753,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.05138613096246</v>
+        <v>4.270963899153911</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698141</v>
+        <v>20.82395871551664</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230871</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>174.6992943039481</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>328.9568285209666</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>147.3933628517834</v>
       </c>
       <c r="X4" t="n">
-        <v>19.09118524665115</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>38.57147555637903</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>75.12986081910665</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>132.7129449912583</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>199.4400615544203</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.1220472061923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>16.98383927040527</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>85.51306137587846</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.53704437734234</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="C40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="D40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="E40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="F40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="H40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="I40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="K40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="L40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="M40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="N40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="O40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="P40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="R40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="T40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="U40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="V40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="W40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="X40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.1611750150583</v>
+        <v>4.270963899153879</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467052</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467054</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33278,7 +33278,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>176.1592645264425</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>531.9071509455538</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982454</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745725</v>
@@ -33983,16 +33983,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>221.0369088927397</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>212.9461024279904</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,22 +34448,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>420.0532525768086</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>581.9206576708315</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,7 +36367,7 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>563.9433698486985</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,7 +36376,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707616</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>442.39092200611</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357537</v>
+        <v>332.9556952494689</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554007</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230595</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248959</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L35" t="n">
         <v>625.7775560664393</v>
@@ -37324,7 +37324,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>416.9991286653367</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>49.32163785977581</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>400.5654388622204</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839152</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475636</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N38" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O38" t="n">
-        <v>739.5040280119348</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P38" t="n">
         <v>553.844392613483</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946983</v>
@@ -37631,16 +37631,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>81.05513480671823</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571883</v>
+        <v>84.05088600981441</v>
       </c>
       <c r="K40" t="n">
-        <v>266.412414379264</v>
+        <v>266.5222032633596</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394363</v>
+        <v>395.9495680235319</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034011</v>
+        <v>427.7351982874966</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359743</v>
+        <v>423.1556768200699</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756943</v>
+        <v>375.0007184597898</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081942</v>
+        <v>297.7360495922898</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195382</v>
+        <v>123.1731190036337</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>70.3498579835459</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788762</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390485</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>282.2118136024496</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030134</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078065</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
